--- a/data_year/zb/文化/文物业基本情况/文物业从业人员.xlsx
+++ b/data_year/zb/文化/文物业基本情况/文物业从业人员.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,782 +498,513 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2645</v>
+      </c>
       <c r="C2" t="n">
-        <v>4051</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>9286</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5079</v>
+      </c>
       <c r="E2" t="n">
-        <v>34199</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+        <v>57431</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50042</v>
+      </c>
+      <c r="G2" t="n">
+        <v>32363</v>
+      </c>
       <c r="H2" t="n">
-        <v>68038</v>
+        <v>102471</v>
       </c>
       <c r="I2" t="n">
-        <v>24051</v>
+        <v>30171</v>
       </c>
       <c r="J2" t="n">
-        <v>2937</v>
+        <v>1737</v>
       </c>
       <c r="K2" t="n">
-        <v>2800</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+        <v>3846</v>
+      </c>
+      <c r="L2" t="n">
+        <v>97392</v>
+      </c>
+      <c r="M2" t="n">
+        <v>17421</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3420</v>
+      </c>
       <c r="C3" t="n">
-        <v>3720</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>10325</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5876</v>
+      </c>
       <c r="E3" t="n">
-        <v>35092</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+        <v>62181</v>
+      </c>
+      <c r="F3" t="n">
+        <v>58118</v>
+      </c>
+      <c r="G3" t="n">
+        <v>32915</v>
+      </c>
       <c r="H3" t="n">
-        <v>70923</v>
+        <v>111338</v>
       </c>
       <c r="I3" t="n">
-        <v>25812</v>
+        <v>33035</v>
       </c>
       <c r="J3" t="n">
-        <v>2742</v>
+        <v>1719</v>
       </c>
       <c r="K3" t="n">
-        <v>3252</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+        <v>4078</v>
+      </c>
+      <c r="L3" t="n">
+        <v>105462</v>
+      </c>
+      <c r="M3" t="n">
+        <v>16885</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3462</v>
+      </c>
       <c r="C4" t="n">
-        <v>2955</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>12013</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12140</v>
+      </c>
       <c r="E4" t="n">
-        <v>35833</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+        <v>71748</v>
+      </c>
+      <c r="F4" t="n">
+        <v>67495</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36671</v>
+      </c>
       <c r="H4" t="n">
-        <v>66125</v>
+        <v>125155</v>
       </c>
       <c r="I4" t="n">
-        <v>21786</v>
+        <v>34854</v>
       </c>
       <c r="J4" t="n">
-        <v>2647</v>
+        <v>1623</v>
       </c>
       <c r="K4" t="n">
-        <v>2904</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+        <v>4917</v>
+      </c>
+      <c r="L4" t="n">
+        <v>113015</v>
+      </c>
+      <c r="M4" t="n">
+        <v>17527</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3432</v>
+      </c>
       <c r="C5" t="n">
-        <v>3285</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>15925</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16891</v>
+      </c>
       <c r="E5" t="n">
-        <v>34891</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+        <v>79075</v>
+      </c>
+      <c r="F5" t="n">
+        <v>75192</v>
+      </c>
+      <c r="G5" t="n">
+        <v>40402</v>
+      </c>
       <c r="H5" t="n">
-        <v>66676</v>
+        <v>137173</v>
       </c>
       <c r="I5" t="n">
-        <v>29277</v>
+        <v>35334</v>
       </c>
       <c r="J5" t="n">
-        <v>2508</v>
+        <v>1596</v>
       </c>
       <c r="K5" t="n">
-        <v>3110</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+        <v>5243</v>
+      </c>
+      <c r="L5" t="n">
+        <v>120282</v>
+      </c>
+      <c r="M5" t="n">
+        <v>18147</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3582</v>
+      </c>
       <c r="C6" t="n">
-        <v>3866</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>17403</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18018</v>
+      </c>
       <c r="E6" t="n">
-        <v>39266</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+        <v>83970</v>
+      </c>
+      <c r="F6" t="n">
+        <v>81260</v>
+      </c>
+      <c r="G6" t="n">
+        <v>42422</v>
+      </c>
       <c r="H6" t="n">
-        <v>77101</v>
+        <v>148095</v>
       </c>
       <c r="I6" t="n">
-        <v>28128</v>
+        <v>37843</v>
       </c>
       <c r="J6" t="n">
-        <v>2478</v>
+        <v>1565</v>
       </c>
       <c r="K6" t="n">
-        <v>3363</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+        <v>7314</v>
+      </c>
+      <c r="L6" t="n">
+        <v>130077</v>
+      </c>
+      <c r="M6" t="n">
+        <v>20831</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3592</v>
+      </c>
       <c r="C7" t="n">
-        <v>4579</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>18252</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19322</v>
+      </c>
       <c r="E7" t="n">
-        <v>38603</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+        <v>89133</v>
+      </c>
+      <c r="F7" t="n">
+        <v>78928</v>
+      </c>
+      <c r="G7" t="n">
+        <v>44647</v>
+      </c>
       <c r="H7" t="n">
-        <v>82988</v>
+        <v>146098</v>
       </c>
       <c r="I7" t="n">
-        <v>34052</v>
+        <v>32030</v>
       </c>
       <c r="J7" t="n">
-        <v>2310</v>
+        <v>1466</v>
       </c>
       <c r="K7" t="n">
-        <v>3444</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+        <v>5217</v>
+      </c>
+      <c r="L7" t="n">
+        <v>126776</v>
+      </c>
+      <c r="M7" t="n">
+        <v>18931</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3285</v>
+      </c>
       <c r="C8" t="n">
-        <v>4796</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>18465</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21474</v>
+      </c>
       <c r="E8" t="n">
-        <v>40818</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+        <v>93431</v>
+      </c>
+      <c r="F8" t="n">
+        <v>82389</v>
+      </c>
+      <c r="G8" t="n">
+        <v>47140</v>
+      </c>
       <c r="H8" t="n">
-        <v>80894</v>
+        <v>151430</v>
       </c>
       <c r="I8" t="n">
-        <v>29257</v>
+        <v>33407</v>
       </c>
       <c r="J8" t="n">
-        <v>2355</v>
+        <v>1364</v>
       </c>
       <c r="K8" t="n">
-        <v>3668</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+        <v>4763</v>
+      </c>
+      <c r="L8" t="n">
+        <v>129956</v>
+      </c>
+      <c r="M8" t="n">
+        <v>18616</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3615</v>
+      </c>
       <c r="C9" t="n">
-        <v>4917</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>17900</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25721</v>
+      </c>
       <c r="E9" t="n">
-        <v>42636</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+        <v>105079</v>
+      </c>
+      <c r="F9" t="n">
+        <v>90730</v>
+      </c>
+      <c r="G9" t="n">
+        <v>47995</v>
+      </c>
       <c r="H9" t="n">
-        <v>84886</v>
+        <v>161577</v>
       </c>
       <c r="I9" t="n">
-        <v>31175</v>
+        <v>33400</v>
       </c>
       <c r="J9" t="n">
-        <v>2177</v>
+        <v>1203</v>
       </c>
       <c r="K9" t="n">
-        <v>3981</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+        <v>3995</v>
+      </c>
+      <c r="L9" t="n">
+        <v>135856</v>
+      </c>
+      <c r="M9" t="n">
+        <v>19237</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3073</v>
+      </c>
       <c r="C10" t="n">
-        <v>4826</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>17454</v>
+      </c>
+      <c r="D10" t="n">
+        <v>26304</v>
+      </c>
       <c r="E10" t="n">
-        <v>51587</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+        <v>107506</v>
+      </c>
+      <c r="F10" t="n">
+        <v>91867</v>
+      </c>
+      <c r="G10" t="n">
+        <v>48452</v>
+      </c>
       <c r="H10" t="n">
-        <v>92060</v>
+        <v>162638</v>
       </c>
       <c r="I10" t="n">
-        <v>29661</v>
+        <v>32406</v>
       </c>
       <c r="J10" t="n">
-        <v>2020</v>
+        <v>1139</v>
       </c>
       <c r="K10" t="n">
-        <v>3966</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+        <v>4133</v>
+      </c>
+      <c r="L10" t="n">
+        <v>136334</v>
+      </c>
+      <c r="M10" t="n">
+        <v>19246</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3092</v>
+      </c>
       <c r="C11" t="n">
-        <v>7741</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>17946</v>
+      </c>
+      <c r="D11" t="n">
+        <v>27326</v>
+      </c>
       <c r="E11" t="n">
-        <v>59919</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+        <v>107993</v>
+      </c>
+      <c r="F11" t="n">
+        <v>91574</v>
+      </c>
+      <c r="G11" t="n">
+        <v>49093</v>
+      </c>
       <c r="H11" t="n">
-        <v>101986</v>
+        <v>162285</v>
       </c>
       <c r="I11" t="n">
-        <v>28629</v>
+        <v>30689</v>
       </c>
       <c r="J11" t="n">
-        <v>1898</v>
+        <v>1344</v>
       </c>
       <c r="K11" t="n">
-        <v>3799</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+        <v>4313</v>
+      </c>
+      <c r="L11" t="n">
+        <v>134959</v>
+      </c>
+      <c r="M11" t="n">
+        <v>18526</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2645</v>
+        <v>3244</v>
       </c>
       <c r="C12" t="n">
-        <v>9286</v>
+        <v>19747</v>
       </c>
       <c r="D12" t="n">
-        <v>5079</v>
+        <v>29155</v>
       </c>
       <c r="E12" t="n">
-        <v>57431</v>
+        <v>118913</v>
       </c>
       <c r="F12" t="n">
-        <v>50042</v>
+        <v>99418</v>
       </c>
       <c r="G12" t="n">
-        <v>32363</v>
+        <v>51918</v>
       </c>
       <c r="H12" t="n">
-        <v>102471</v>
+        <v>175742</v>
       </c>
       <c r="I12" t="n">
-        <v>30171</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1737</v>
-      </c>
+        <v>31959</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>3846</v>
+        <v>5123</v>
       </c>
       <c r="L12" t="n">
-        <v>97392</v>
+        <v>146587</v>
       </c>
       <c r="M12" t="n">
-        <v>17421</v>
+        <v>21162</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3420</v>
+        <v>3758</v>
       </c>
       <c r="C13" t="n">
-        <v>10325</v>
+        <v>19606</v>
       </c>
       <c r="D13" t="n">
-        <v>5876</v>
+        <v>33008</v>
       </c>
       <c r="E13" t="n">
-        <v>62181</v>
+        <v>125704</v>
       </c>
       <c r="F13" t="n">
-        <v>58118</v>
+        <v>102908</v>
       </c>
       <c r="G13" t="n">
-        <v>32915</v>
+        <v>53061</v>
       </c>
       <c r="H13" t="n">
-        <v>111338</v>
+        <v>181492</v>
       </c>
       <c r="I13" t="n">
-        <v>33035</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1719</v>
-      </c>
+        <v>30212</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>4078</v>
+        <v>5970</v>
       </c>
       <c r="L13" t="n">
-        <v>105462</v>
+        <v>148484</v>
       </c>
       <c r="M13" t="n">
-        <v>16885</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3462</v>
-      </c>
-      <c r="C14" t="n">
-        <v>12013</v>
-      </c>
-      <c r="D14" t="n">
-        <v>12140</v>
-      </c>
-      <c r="E14" t="n">
-        <v>71748</v>
-      </c>
-      <c r="F14" t="n">
-        <v>67495</v>
-      </c>
-      <c r="G14" t="n">
-        <v>36671</v>
-      </c>
-      <c r="H14" t="n">
-        <v>125155</v>
-      </c>
-      <c r="I14" t="n">
-        <v>34854</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1623</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4917</v>
-      </c>
-      <c r="L14" t="n">
-        <v>113015</v>
-      </c>
-      <c r="M14" t="n">
-        <v>17527</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3432</v>
-      </c>
-      <c r="C15" t="n">
-        <v>15925</v>
-      </c>
-      <c r="D15" t="n">
-        <v>16891</v>
-      </c>
-      <c r="E15" t="n">
-        <v>79075</v>
-      </c>
-      <c r="F15" t="n">
-        <v>75192</v>
-      </c>
-      <c r="G15" t="n">
-        <v>40402</v>
-      </c>
-      <c r="H15" t="n">
-        <v>137173</v>
-      </c>
-      <c r="I15" t="n">
-        <v>35334</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1596</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5243</v>
-      </c>
-      <c r="L15" t="n">
-        <v>120282</v>
-      </c>
-      <c r="M15" t="n">
-        <v>18147</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3582</v>
-      </c>
-      <c r="C16" t="n">
-        <v>17403</v>
-      </c>
-      <c r="D16" t="n">
-        <v>18018</v>
-      </c>
-      <c r="E16" t="n">
-        <v>83970</v>
-      </c>
-      <c r="F16" t="n">
-        <v>81260</v>
-      </c>
-      <c r="G16" t="n">
-        <v>42422</v>
-      </c>
-      <c r="H16" t="n">
-        <v>148095</v>
-      </c>
-      <c r="I16" t="n">
-        <v>37843</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1565</v>
-      </c>
-      <c r="K16" t="n">
-        <v>7314</v>
-      </c>
-      <c r="L16" t="n">
-        <v>130077</v>
-      </c>
-      <c r="M16" t="n">
-        <v>20831</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3592</v>
-      </c>
-      <c r="C17" t="n">
-        <v>18252</v>
-      </c>
-      <c r="D17" t="n">
-        <v>19322</v>
-      </c>
-      <c r="E17" t="n">
-        <v>89133</v>
-      </c>
-      <c r="F17" t="n">
-        <v>78928</v>
-      </c>
-      <c r="G17" t="n">
-        <v>44647</v>
-      </c>
-      <c r="H17" t="n">
-        <v>146098</v>
-      </c>
-      <c r="I17" t="n">
-        <v>32030</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1466</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5217</v>
-      </c>
-      <c r="L17" t="n">
-        <v>126776</v>
-      </c>
-      <c r="M17" t="n">
-        <v>18931</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3285</v>
-      </c>
-      <c r="C18" t="n">
-        <v>18465</v>
-      </c>
-      <c r="D18" t="n">
-        <v>21474</v>
-      </c>
-      <c r="E18" t="n">
-        <v>93431</v>
-      </c>
-      <c r="F18" t="n">
-        <v>82389</v>
-      </c>
-      <c r="G18" t="n">
-        <v>47140</v>
-      </c>
-      <c r="H18" t="n">
-        <v>151430</v>
-      </c>
-      <c r="I18" t="n">
-        <v>33407</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1364</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4763</v>
-      </c>
-      <c r="L18" t="n">
-        <v>129956</v>
-      </c>
-      <c r="M18" t="n">
-        <v>18616</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3615</v>
-      </c>
-      <c r="C19" t="n">
-        <v>17900</v>
-      </c>
-      <c r="D19" t="n">
-        <v>25721</v>
-      </c>
-      <c r="E19" t="n">
-        <v>105079</v>
-      </c>
-      <c r="F19" t="n">
-        <v>90730</v>
-      </c>
-      <c r="G19" t="n">
-        <v>47995</v>
-      </c>
-      <c r="H19" t="n">
-        <v>161577</v>
-      </c>
-      <c r="I19" t="n">
-        <v>33400</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1203</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3995</v>
-      </c>
-      <c r="L19" t="n">
-        <v>135856</v>
-      </c>
-      <c r="M19" t="n">
-        <v>19237</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3073</v>
-      </c>
-      <c r="C20" t="n">
-        <v>17454</v>
-      </c>
-      <c r="D20" t="n">
-        <v>26304</v>
-      </c>
-      <c r="E20" t="n">
-        <v>107506</v>
-      </c>
-      <c r="F20" t="n">
-        <v>91867</v>
-      </c>
-      <c r="G20" t="n">
-        <v>48452</v>
-      </c>
-      <c r="H20" t="n">
-        <v>162638</v>
-      </c>
-      <c r="I20" t="n">
-        <v>32406</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1139</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4133</v>
-      </c>
-      <c r="L20" t="n">
-        <v>136334</v>
-      </c>
-      <c r="M20" t="n">
-        <v>19246</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3092</v>
-      </c>
-      <c r="C21" t="n">
-        <v>17946</v>
-      </c>
-      <c r="D21" t="n">
-        <v>27326</v>
-      </c>
-      <c r="E21" t="n">
-        <v>107993</v>
-      </c>
-      <c r="F21" t="n">
-        <v>91574</v>
-      </c>
-      <c r="G21" t="n">
-        <v>49093</v>
-      </c>
-      <c r="H21" t="n">
-        <v>162285</v>
-      </c>
-      <c r="I21" t="n">
-        <v>30689</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1344</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4313</v>
-      </c>
-      <c r="L21" t="n">
-        <v>134959</v>
-      </c>
-      <c r="M21" t="n">
-        <v>18526</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>3244</v>
-      </c>
-      <c r="C22" t="n">
-        <v>19747</v>
-      </c>
-      <c r="D22" t="n">
-        <v>29155</v>
-      </c>
-      <c r="E22" t="n">
-        <v>118913</v>
-      </c>
-      <c r="F22" t="n">
-        <v>99418</v>
-      </c>
-      <c r="G22" t="n">
-        <v>51918</v>
-      </c>
-      <c r="H22" t="n">
-        <v>175742</v>
-      </c>
-      <c r="I22" t="n">
-        <v>31959</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>5123</v>
-      </c>
-      <c r="L22" t="n">
-        <v>146587</v>
-      </c>
-      <c r="M22" t="n">
-        <v>21162</v>
+        <v>21765</v>
       </c>
     </row>
   </sheetData>
